--- a/Jogos_do_Dia/2023-10-10_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-10-10_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ2"/>
+  <dimension ref="A1:AQ3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -793,6 +793,145 @@
         <v>1.21</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Brazil Serie B</t>
+        </is>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>45209</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>21:30:00</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>32</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ABC</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Mirassol</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="I3" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J3" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="K3" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="L3" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R3" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S3" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="T3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="U3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V3" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="X3" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
